--- a/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
+++ b/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>011149</t>
-  </si>
-  <si>
-    <t>011150</t>
-  </si>
-  <si>
-    <t>创金合信ESG责任投资股票A</t>
-  </si>
-  <si>
-    <t>创金合信ESG责任投资股票C</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>91.96</t>
-  </si>
-  <si>
-    <t>3.69</t>
-  </si>
-  <si>
-    <t>0.0052</t>
-  </si>
-  <si>
-    <t>0.0030</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
+++ b/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
+++ b/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -754,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,17 +766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -785,14 +806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.58</v>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -801,13 +844,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
+++ b/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1015,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.58</v>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -988,13 +1053,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
+++ b/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.58</v>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
+++ b/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,129 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011149</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信ESG责任投资股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011150</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信ESG责任投资股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -587,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -638,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010874</t>
+          <t>006218</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康品质生活混合A</t>
+          <t>富国生物医药科技混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>11.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>87.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3734</t>
+          <t>0.5619</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -676,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010875</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康品质生活混合C</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>72.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1439</t>
+          <t>0.2752</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -714,36 +698,378 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009490</t>
+          <t>010054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康科技创新一年定期开放混合</t>
+          <t>万家健康产业混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.46</t>
+          <t>88.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0611</t>
+          <t>0.1637</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -808,32 +1134,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011431</t>
+          <t>006218</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利消费服务混合A</t>
+          <t>富国生物医药科技混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>87.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1717</t>
+          <t>0.3333</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -861,21 +1187,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.94</t>
+          <t>72.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1252</t>
+          <t>0.2392</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -884,32 +1210,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011432</t>
+          <t>011308</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利消费服务混合C</t>
+          <t>富国生物医药科技混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>87.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0440</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -978,32 +1304,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006218</t>
+          <t>011431</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国生物医药科技混合A</t>
+          <t>泰达宏利消费服务混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.25</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3333</t>
+          <t>0.1717</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1031,21 +1357,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>71.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2392</t>
+          <t>0.1252</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1054,32 +1380,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011308</t>
+          <t>011432</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国生物医药科技混合C</t>
+          <t>泰达宏利消费服务混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.25</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0440</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1097,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,7 +1444,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1148,36 +1474,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006218</t>
+          <t>010874</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国生物医药科技混合A</t>
+          <t>泰康品质生活混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.83</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.24</t>
+          <t>90.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5619</t>
+          <t>0.3734</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1186,36 +1512,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>010875</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>泰康品质生活混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.33</t>
+          <t>90.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2752</t>
+          <t>0.1439</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1224,378 +1550,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010054</t>
+          <t>009490</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家健康产业混合A</t>
+          <t>泰康科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.96</t>
+          <t>84.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1637</t>
+          <t>0.0611</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011308</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国生物医药科技混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1520</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009468</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时健康成长主题双周定期可赎回混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1519</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168501</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>北信瑞丰产业升级多策略混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1090</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001056</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0632</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010055</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.96</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009469</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时健康成长主题双周定期可赎回混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>014931</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国天源沪港深平衡混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>72.33</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1609,112 +1593,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.55</v>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
+++ b/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.58</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -566,6 +583,896 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014708</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014709</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,176 +1977,6 @@
       </c>
       <c r="H13" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006218</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国生物医药科技混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3333</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>100016</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国天源沪港深平衡混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2392</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国生物医药科技混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1304,32 +2041,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011431</t>
+          <t>006218</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利消费服务混合A</t>
+          <t>富国生物医药科技混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>87.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1717</t>
+          <t>0.3333</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1357,21 +2094,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.94</t>
+          <t>72.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1252</t>
+          <t>0.2392</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1380,32 +2117,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011432</t>
+          <t>011308</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利消费服务混合C</t>
+          <t>富国生物医药科技混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>87.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0440</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1444,7 +2181,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1474,36 +2211,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010874</t>
+          <t>011431</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康品质生活混合A</t>
+          <t>泰达宏利消费服务混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3734</t>
+          <t>0.1717</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1512,36 +2249,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010875</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康品质生活混合C</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>71.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1439</t>
+          <t>0.1252</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1550,36 +2287,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009490</t>
+          <t>011432</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康科技创新一年定期开放混合</t>
+          <t>泰达宏利消费服务混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.46</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0611</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1588,6 +2325,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
+++ b/数据整理/stocks/A股/上证主板/605186-健麾信息.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>1.21</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.58</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -583,6 +600,818 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3515</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1472,7 +2301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1977,176 +2806,6 @@
       </c>
       <c r="H13" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006218</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国生物医药科技混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3333</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>100016</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国天源沪港深平衡混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2392</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国生物医药科技混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2211,32 +2870,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011431</t>
+          <t>006218</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利消费服务混合A</t>
+          <t>富国生物医药科技混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>87.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1717</t>
+          <t>0.3333</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2264,21 +2923,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.94</t>
+          <t>72.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1252</t>
+          <t>0.2392</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2287,32 +2946,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011432</t>
+          <t>011308</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利消费服务混合C</t>
+          <t>富国生物医药科技混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>87.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0440</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2351,7 +3010,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2381,36 +3040,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010874</t>
+          <t>011431</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康品质生活混合A</t>
+          <t>泰达宏利消费服务混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3734</t>
+          <t>0.1717</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2419,36 +3078,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010875</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康品质生活混合C</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>71.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1439</t>
+          <t>0.1252</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2457,36 +3116,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009490</t>
+          <t>011432</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康科技创新一年定期开放混合</t>
+          <t>泰达宏利消费服务混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.46</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0611</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2495,6 +3154,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
